--- a/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
+++ b/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.structure` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.structure` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.structure` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:structure.id</t>
@@ -436,7 +436,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.laterality` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.laterality` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.laterality` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:laterality.id</t>
@@ -473,7 +473,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.id</t>
@@ -495,7 +495,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:landmarkDescription.id</t>
@@ -538,7 +538,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition.id</t>
@@ -563,7 +563,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.id</t>
@@ -585,7 +585,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.id</t>
@@ -664,7 +664,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:concept.id</t>
@@ -697,7 +697,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -746,7 +746,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:value.id</t>
@@ -787,7 +787,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.id</t>
@@ -827,7 +827,8 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.spatialReference` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.spatialReference` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BodyStructure.includedStructure.spatialReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `BodyStructure.includedStructure.spatialReference` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:spatialReference.id</t>

--- a/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
+++ b/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `BodyStructure` 0..* `BodyStructure`
 *  R4: `BodyStructure` 0..* `BodyStructure`
 Following are the generation technical comments:
-Element `BodyStructure.includedStructure` is mapped to FHIR R4 element `BodyStructure`.</t>
+Element `BodyStructure.includedStructure` has is mapped to FHIR R4 element `BodyStructure`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +142,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:BodyStructure</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,8 +340,8 @@
     <t>Code that represents the included structure.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.structure` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.structure` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.structure` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
+Element `BodyStructure.includedStructure.structure` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:structure.id</t>
@@ -435,8 +435,8 @@
     <t>Code that represents the included structure laterality.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.laterality` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.laterality` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.laterality` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
+Element `BodyStructure.includedStructure.laterality` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:laterality.id</t>
@@ -472,8 +472,8 @@
     <t>Body locations in relation to a specific body landmark (tatoo, scar, other body structure).</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.id</t>
@@ -495,7 +495,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:landmarkDescription.id</t>
@@ -516,6 +516,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription</t>
+  </si>
+  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:landmarkDescription.value[x]</t>
   </si>
   <si>
@@ -538,7 +541,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition.id</t>
@@ -550,6 +553,9 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition</t>
+  </si>
+  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition.value[x]</t>
   </si>
   <si>
@@ -563,7 +569,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.id</t>
@@ -585,7 +591,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.id</t>
@@ -663,8 +669,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:concept.id</t>
@@ -697,8 +703,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:reference.id</t>
@@ -723,6 +729,9 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device</t>
+  </si>
+  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.value[x]</t>
   </si>
   <si>
@@ -746,7 +755,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:value.id</t>
@@ -756,6 +765,9 @@
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:value.value[x]</t>
@@ -787,7 +799,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.id</t>
@@ -799,6 +811,9 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation</t>
+  </si>
+  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.value[x]</t>
   </si>
   <si>
@@ -826,9 +841,9 @@
     <t>XY or XYZ-coordinate orientation for structure.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.spatialReference` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `BodyStructure.includedStructure.spatialReference` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BodyStructure.includedStructure.spatialReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `BodyStructure.includedStructure.spatialReference` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+Element `BodyStructure.includedStructure.spatialReference` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:spatialReference.id</t>
@@ -862,8 +877,8 @@
     <t>Code that represents the included structure qualifier.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.qualifier` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.qualifier` is mapped to FHIR R4 element `BodyStructure.locationQualifier`.</t>
+    <t>Element `BodyStructure.includedStructure.qualifier` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
+Element `BodyStructure.includedStructure.qualifier` has is mapped to FHIR R4 element `BodyStructure.locationQualifier`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:qualifier.id</t>
@@ -3383,7 +3398,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3445,10 +3460,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3507,7 +3522,7 @@
         <v>124</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>126</v>
@@ -3548,13 +3563,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3579,14 +3594,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3655,7 +3670,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>154</v>
@@ -3758,7 +3773,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>156</v>
@@ -3863,7 +3878,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>158</v>
@@ -3906,7 +3921,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3968,10 +3983,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3997,10 +4012,10 @@
         <v>123</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4071,13 +4086,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4105,11 +4120,11 @@
         <v>143</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4178,7 +4193,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>154</v>
@@ -4281,7 +4296,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>156</v>
@@ -4384,13 +4399,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4415,14 +4430,14 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4491,10 +4506,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4594,10 +4609,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4697,13 +4712,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
@@ -4728,10 +4743,10 @@
         <v>93</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4802,10 +4817,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4905,10 +4920,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5010,10 +5025,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5053,7 +5068,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>77</v>
@@ -5115,10 +5130,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5144,13 +5159,13 @@
         <v>87</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5158,7 +5173,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5220,13 +5235,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
@@ -5251,14 +5266,14 @@
         <v>93</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5327,10 +5342,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5430,10 +5445,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5535,10 +5550,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5578,7 +5593,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>77</v>
@@ -5640,10 +5655,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5669,10 +5684,10 @@
         <v>123</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5699,11 +5714,11 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -5741,13 +5756,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>77</v>
@@ -5772,14 +5787,14 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -5848,10 +5863,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5951,10 +5966,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6056,10 +6071,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6099,7 +6114,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>77</v>
@@ -6161,10 +6176,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6187,13 +6202,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6264,10 +6279,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6307,7 +6322,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -6369,10 +6384,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6395,13 +6410,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6472,13 +6487,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -6503,14 +6518,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -6579,10 +6594,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6682,10 +6697,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6787,10 +6802,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6830,7 +6845,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -6892,10 +6907,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6918,13 +6933,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6995,7 +7010,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>158</v>
@@ -7038,7 +7053,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7100,10 +7115,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7126,13 +7141,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7203,13 +7218,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7234,14 +7249,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7310,7 +7325,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>154</v>
@@ -7413,7 +7428,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>156</v>
@@ -7518,7 +7533,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>158</v>
@@ -7561,7 +7576,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7623,10 +7638,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7652,10 +7667,10 @@
         <v>123</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7682,10 +7697,10 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>140</v>
@@ -7726,7 +7741,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7769,7 +7784,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7831,7 +7846,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7857,13 +7872,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7934,13 +7949,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7965,14 +7980,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8041,7 +8056,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8144,7 +8159,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8249,7 +8264,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8292,7 +8307,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8354,7 +8369,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8380,13 +8395,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8457,13 +8472,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8488,14 +8503,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8564,7 +8579,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8667,7 +8682,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -8772,7 +8787,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -8815,7 +8830,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8877,7 +8892,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -8906,10 +8921,10 @@
         <v>123</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9111,13 +9126,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>

--- a/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
+++ b/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="274">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,15 +407,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>SNOMED CT Body site concepts</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-body-site-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -454,12 +445,6 @@
     <t>Extension.extension:laterality.value[x]</t>
   </si>
   <si>
-    <t>Concepts modifying the anatomic location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-bodystructure-relative-location-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:bodyLandmarkOrientation</t>
   </si>
   <si>
@@ -525,9 +510,6 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Select SNOMED code system values. Values used in a podiatry setting to decsribe landmarks on the body.</t>
-  </si>
-  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition</t>
   </si>
   <si>
@@ -669,8 +651,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:concept.id</t>
@@ -688,7 +669,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-device-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-device-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:reference</t>
@@ -703,8 +684,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:reference.id</t>
@@ -719,7 +699,7 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -815,9 +795,6 @@
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.value[x]</t>
-  </si>
-  <si>
-    <t>Select SNOMED code system values. The surface area a body location is in relation to a landmark.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.url</t>
@@ -861,7 +838,7 @@
     <t>Extension.extension:spatialReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|Basic)
 </t>
   </si>
   <si>
@@ -1243,8 +1220,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.26953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.49609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2160,43 +2137,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -2204,13 +2181,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2235,14 +2212,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2311,7 +2288,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2414,7 +2391,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2519,7 +2496,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2562,7 +2539,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2624,7 +2601,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2653,10 +2630,10 @@
         <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2683,32 +2660,32 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
       </c>
@@ -2719,7 +2696,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2727,13 +2704,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2758,14 +2735,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2834,7 +2811,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2937,7 +2914,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3040,13 +3017,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3071,14 +3048,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3147,10 +3124,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3250,10 +3227,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3355,10 +3332,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3398,7 +3375,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3460,10 +3437,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3489,10 +3466,10 @@
         <v>123</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3519,32 +3496,32 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG22" t="s" s="2">
         <v>83</v>
       </c>
@@ -3555,7 +3532,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>120</v>
@@ -3563,13 +3540,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3594,14 +3571,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3670,10 +3647,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3773,10 +3750,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3878,10 +3855,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3921,7 +3898,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3983,10 +3960,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4012,10 +3989,10 @@
         <v>123</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4066,7 +4043,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
@@ -4078,7 +4055,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>120</v>
@@ -4086,13 +4063,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4117,14 +4094,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4193,10 +4170,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4296,10 +4273,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4399,13 +4376,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4430,14 +4407,14 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4506,10 +4483,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4609,10 +4586,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4712,13 +4689,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
@@ -4743,10 +4720,10 @@
         <v>93</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4817,10 +4794,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4920,10 +4897,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5025,10 +5002,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5068,7 +5045,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>77</v>
@@ -5130,10 +5107,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5159,13 +5136,13 @@
         <v>87</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5173,7 +5150,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5215,7 +5192,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -5227,7 +5204,7 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>120</v>
@@ -5235,13 +5212,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
@@ -5266,14 +5243,14 @@
         <v>93</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5342,10 +5319,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5445,10 +5422,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5550,10 +5527,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5593,7 +5570,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>77</v>
@@ -5655,10 +5632,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5684,10 +5661,10 @@
         <v>123</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5714,11 +5691,11 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -5736,7 +5713,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>83</v>
@@ -5748,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>120</v>
@@ -5756,13 +5733,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>77</v>
@@ -5787,14 +5764,14 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -5863,10 +5840,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5966,10 +5943,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6071,10 +6048,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6114,7 +6091,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>77</v>
@@ -6176,10 +6153,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6202,13 +6179,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6259,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -6271,7 +6248,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>120</v>
@@ -6279,10 +6256,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6322,7 +6299,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -6384,10 +6361,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6410,13 +6387,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6467,7 +6444,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
@@ -6479,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>120</v>
@@ -6487,13 +6464,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -6518,14 +6495,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -6594,10 +6571,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6697,10 +6674,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6802,10 +6779,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6845,7 +6822,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -6907,10 +6884,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6933,13 +6910,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6990,7 +6967,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
@@ -7002,7 +6979,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>120</v>
@@ -7010,10 +6987,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7053,7 +7030,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7115,10 +7092,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7141,13 +7118,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7198,7 +7175,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
@@ -7210,7 +7187,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>120</v>
@@ -7218,13 +7195,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7249,14 +7226,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7325,10 +7302,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7428,10 +7405,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7533,10 +7510,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7576,7 +7553,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7638,10 +7615,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7667,10 +7644,10 @@
         <v>123</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7697,13 +7674,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -7721,7 +7698,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
@@ -7733,7 +7710,7 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>120</v>
@@ -7741,7 +7718,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7784,7 +7761,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7846,7 +7823,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7872,13 +7849,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7929,7 +7906,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
@@ -7941,7 +7918,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>120</v>
@@ -7949,13 +7926,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7980,14 +7957,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8056,7 +8033,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8159,7 +8136,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8264,7 +8241,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8307,7 +8284,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8369,7 +8346,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8395,13 +8372,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8452,7 +8429,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
@@ -8464,7 +8441,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>120</v>
@@ -8472,13 +8449,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8503,14 +8480,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8579,7 +8556,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8682,7 +8659,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -8787,7 +8764,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -8830,7 +8807,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8892,7 +8869,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -8921,10 +8898,10 @@
         <v>123</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8951,32 +8928,32 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
       </c>
@@ -8987,7 +8964,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>120</v>
@@ -9100,10 +9077,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9126,13 +9103,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9183,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>83</v>
@@ -9195,7 +9172,7 @@
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>120</v>

--- a/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
+++ b/StructureDefinition-ext-R5-BodyStructure.includedStructure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `BodyStructure` 0..* `BodyStructure`
 *  R4: `BodyStructure` 0..* `BodyStructure`
 Following are the generation technical comments:
-Element `BodyStructure.includedStructure` has is mapped to FHIR R4 element `BodyStructure`, but has no comparisons.</t>
+Element `BodyStructure.includedStructure` is mapped to FHIR R4 element `BodyStructure` as `SourceIsNarrowerThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>Code that represents the included structure.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.structure` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
-Element `BodyStructure.includedStructure.structure` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.structure` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:structure.id</t>
@@ -426,8 +425,7 @@
     <t>Code that represents the included structure laterality.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.laterality` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
-Element `BodyStructure.includedStructure.laterality` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.laterality` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:laterality.id</t>
@@ -457,8 +455,7 @@
     <t>Body locations in relation to a specific body landmark (tatoo, scar, other body structure).</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.id</t>
@@ -479,8 +476,7 @@
     <t>A description of a landmark on the body used as a reference to locate something else.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:landmarkDescription.id</t>
@@ -501,9 +497,6 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription</t>
-  </si>
-  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:landmarkDescription.value[x]</t>
   </si>
   <si>
@@ -522,8 +515,7 @@
     <t>An description of the direction away from a landmark something is located based on a radial clock dial.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition.id</t>
@@ -535,9 +527,6 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition</t>
-  </si>
-  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:clockFacePosition.value[x]</t>
   </si>
   <si>
@@ -550,8 +539,7 @@
     <t>The distance in centimeters a certain observation is made from a body landmark.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.id</t>
@@ -572,8 +560,7 @@
     <t>An instrument, tool, analyzer, etc. used in the measurement.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.id</t>
@@ -651,7 +638,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:concept.id</t>
@@ -666,12 +653,6 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-device-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:reference</t>
   </si>
   <si>
@@ -684,7 +665,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:reference.id</t>
@@ -699,7 +680,7 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -707,9 +688,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:device.value[x]</t>
@@ -734,8 +712,7 @@
     <t>The measured distance (e.g., in cm) from a body landmark.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:value.id</t>
@@ -745,9 +722,6 @@
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.extension:value.value[x]</t>
@@ -760,9 +734,6 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark</t>
-  </si>
-  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:distanceFromLandmark.value[x]</t>
   </si>
   <si>
@@ -778,8 +749,7 @@
     <t>The surface area a body location is in relation to a landmark.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.id</t>
@@ -791,9 +761,6 @@
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation</t>
-  </si>
-  <si>
     <t>Extension.extension:bodyLandmarkOrientation.extension:surfaceOrientation.value[x]</t>
   </si>
   <si>
@@ -818,8 +785,7 @@
     <t>XY or XYZ-coordinate orientation for structure.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.spatialReference` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BodyStructure.includedStructure.spatialReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BodyStructure.includedStructure.spatialReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `BodyStructure.includedStructure.spatialReference` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
@@ -838,7 +804,7 @@
     <t>Extension.extension:spatialReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ImagingSelection|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -854,8 +820,7 @@
     <t>Code that represents the included structure qualifier.</t>
   </si>
   <si>
-    <t>Element `BodyStructure.includedStructure.qualifier` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a cross-version extension.
-Element `BodyStructure.includedStructure.qualifier` has is mapped to FHIR R4 element `BodyStructure.locationQualifier`, but has no comparisons.</t>
+    <t>Element `BodyStructure.includedStructure.qualifier` is mapped to FHIR R4 element `BodyStructure.locationQualifier` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:qualifier.id</t>
@@ -1210,7 +1175,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="224.39453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="212.27734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1221,7 +1186,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3375,7 +3340,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3437,10 +3402,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3540,13 +3505,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3571,14 +3536,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3647,7 +3612,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>149</v>
@@ -3750,7 +3715,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>151</v>
@@ -3855,7 +3820,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>153</v>
@@ -3898,7 +3863,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3960,10 +3925,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3989,10 +3954,10 @@
         <v>123</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4063,13 +4028,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4097,11 +4062,11 @@
         <v>138</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4170,7 +4135,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>149</v>
@@ -4273,7 +4238,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>151</v>
@@ -4376,13 +4341,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>151</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4407,14 +4372,14 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4483,10 +4448,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4586,10 +4551,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4689,13 +4654,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
@@ -4720,10 +4685,10 @@
         <v>93</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4794,10 +4759,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4897,10 +4862,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5002,10 +4967,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5045,7 +5010,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>77</v>
@@ -5107,10 +5072,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5136,13 +5101,13 @@
         <v>87</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5150,7 +5115,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5212,13 +5177,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
@@ -5243,14 +5208,14 @@
         <v>93</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5319,10 +5284,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5422,10 +5387,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5527,10 +5492,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5570,7 +5535,7 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>77</v>
@@ -5632,10 +5597,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5661,10 +5626,10 @@
         <v>123</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5691,11 +5656,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -5733,13 +5700,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>77</v>
@@ -5764,14 +5731,14 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -5840,10 +5807,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5943,10 +5910,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6048,10 +6015,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6091,7 +6058,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>77</v>
@@ -6153,10 +6120,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6179,13 +6146,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6256,10 +6223,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6299,7 +6266,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -6361,10 +6328,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6387,13 +6354,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6464,13 +6431,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>151</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -6495,14 +6462,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -6571,10 +6538,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6674,10 +6641,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6779,10 +6746,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6822,7 +6789,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -6884,10 +6851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6910,13 +6877,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6987,7 +6954,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>153</v>
@@ -7030,7 +6997,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7092,10 +7059,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7118,13 +7085,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7195,13 +7162,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7226,14 +7193,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7302,7 +7269,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>149</v>
@@ -7405,7 +7372,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>151</v>
@@ -7510,7 +7477,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>153</v>
@@ -7553,7 +7520,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7615,10 +7582,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7644,10 +7611,10 @@
         <v>123</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7718,7 +7685,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7761,7 +7728,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7823,7 +7790,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7849,13 +7816,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7926,13 +7893,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7957,14 +7924,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8033,7 +8000,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8136,7 +8103,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8241,7 +8208,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8284,7 +8251,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8346,7 +8313,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8372,13 +8339,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8449,13 +8416,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8480,14 +8447,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8556,7 +8523,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8659,7 +8626,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -8764,7 +8731,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -8807,7 +8774,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8869,7 +8836,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -8898,10 +8865,10 @@
         <v>123</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9103,13 +9070,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
